--- a/Data/common_pers_cleaned.xlsx
+++ b/Data/common_pers_cleaned.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\PhD\Github\Fischerei - Master\Sentiment-Analysis-Western-Baltic-Sea\Topic and Stakeholder Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB2BC4-5877-4184-A605-ACA94E687617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D49AB8-28FE-47DD-8F79-194FF95C5E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
